--- a/data/trans_bre/P5B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,02</t>
+          <t>-4,3; 1,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,4</t>
+          <t>-4,31; 3,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,0</t>
+          <t>-1,39; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 195,85</t>
+          <t>-100,0; 165,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-62,07; 108,24</t>
+          <t>-59,2; 96,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,33</t>
+          <t>-1,0; 4,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,83</t>
+          <t>-3,55; 1,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,83</t>
+          <t>-0,25; 4,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,8</t>
+          <t>-1,42; 0,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 173,8</t>
+          <t>-20,87; 175,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,43; 53,75</t>
+          <t>-55,59; 45,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 302,19</t>
+          <t>-11,02; 285,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,47; 468,06</t>
+          <t>-81,16; —</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,44</t>
+          <t>-0,6; 5,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,27</t>
+          <t>-1,66; 1,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,98</t>
+          <t>-4,2; 1,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 285,25</t>
+          <t>-13,5; 255,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-66,63; 93,51</t>
+          <t>-69,93; 85,55</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,35</t>
+          <t>-2,4; 2,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,26</t>
+          <t>-0,82; 2,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,42</t>
+          <t>-0,04; 4,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,53</t>
+          <t>-3,26; 1,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,49; 157,98</t>
+          <t>-60,21; 157,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 199,39</t>
+          <t>-32,68; 227,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 913,95</t>
+          <t>-17,18; 888,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,67; 99,73</t>
+          <t>-67,22; 82,33</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,34</t>
+          <t>-2,99; 7,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,84</t>
+          <t>-2,63; 3,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,87</t>
+          <t>0,4; 3,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,24</t>
+          <t>-1,42; 0,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 145,45</t>
+          <t>-31,42; 150,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-74,93; 428,4</t>
+          <t>-76,7; 446,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,27 +1168,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,08</t>
+          <t>-0,79; 2,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,85</t>
+          <t>-1,54; 0,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,18</t>
+          <t>-0,63; 1,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,31</t>
+          <t>-1,69; 1,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,69; —</t>
+          <t>-70,43; inf</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,7</t>
+          <t>2,27; 6,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,38</t>
+          <t>-0,84; 1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,79</t>
+          <t>-0,94; 1,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,3</t>
+          <t>-0,09; 2,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>70,65; 503,03</t>
+          <t>64,22; 441,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-79,39; 527,59</t>
+          <t>-88,2; 400,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 295,76</t>
+          <t>-56,37; 302,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 978,91</t>
+          <t>-32,47; 811,08</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,73</t>
+          <t>-0,78; 2,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,52</t>
+          <t>-1,53; 0,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,49</t>
+          <t>-0,08; 1,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 0,82</t>
+          <t>-0,61; 0,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 151,77</t>
+          <t>-24,5; 159,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,12; 165,4</t>
+          <t>-89,76; 89,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-83,32; —</t>
+          <t>-51,8; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-73,4; 463,66</t>
+          <t>-70,36; 528,93</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,62</t>
+          <t>0,77; 2,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,61</t>
+          <t>-0,7; 0,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,39</t>
+          <t>0,12; 1,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,6</t>
+          <t>-0,35; 0,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>23,25; 101,58</t>
+          <t>21,47; 101,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 47,75</t>
+          <t>-33,95; 49,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,54; 127,53</t>
+          <t>4,46; 129,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 68,6</t>
+          <t>-24,23; 83,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 1,02</t>
+          <t>-4,19; 0,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,15</t>
+          <t>-4,66; 3,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 165,02</t>
+          <t>-100,0; 140,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-59,2; 96,95</t>
+          <t>-60,26; 103,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,43</t>
+          <t>-0,77; 4,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,51</t>
+          <t>-3,82; 1,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,74</t>
+          <t>-0,36; 4,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 175,22</t>
+          <t>-16,81; 185,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 45,65</t>
+          <t>-57,27; 55,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 285,61</t>
+          <t>-17,32; 274,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,95</t>
+          <t>-0,59; 6,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,28</t>
+          <t>-1,54; 1,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 255,91</t>
+          <t>-14,63; 280,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,34</t>
+          <t>-2,34; 2,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,48</t>
+          <t>-0,79; 2,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,5</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,21; 157,47</t>
+          <t>-60,71; 157,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 227,06</t>
+          <t>-36,17; 276,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 888,48</t>
+          <t>-24,74; 871,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 7,38</t>
+          <t>-3,5; 7,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,62</t>
+          <t>-2,53; 3,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,61</t>
+          <t>0,4; 3,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 150,32</t>
+          <t>-35,49; 148,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-76,7; 446,97</t>
+          <t>-74,57; 422,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,97</t>
+          <t>-1,04; 2,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,81</t>
+          <t>-1,54; 0,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,48</t>
+          <t>-0,64; 1,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,43; inf</t>
+          <t>-76,06; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,66</t>
+          <t>2,14; 6,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,23</t>
+          <t>-0,86; 1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,22; 441,31</t>
+          <t>63,09; 451,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-88,2; 400,5</t>
+          <t>-88,63; 415,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 302,45</t>
+          <t>-51,34; 280,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,91</t>
+          <t>-0,67; 2,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,42</t>
+          <t>-1,45; 0,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,34</t>
+          <t>-0,07; 1,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 159,64</t>
+          <t>-23,37; 151,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-89,76; 89,08</t>
+          <t>-88,38; 130,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-51,8; —</t>
+          <t>-72,07; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,58</t>
+          <t>0,75; 2,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,66</t>
+          <t>-0,68; 0,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,42</t>
+          <t>0,17; 1,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,47; 101,85</t>
+          <t>20,81; 103,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 49,59</t>
+          <t>-34,8; 47,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,46; 129,15</t>
+          <t>7,94; 137,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P5B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,88</t>
+          <t>-3,84; 1,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 3,22</t>
+          <t>-4,53; 3,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,0</t>
+          <t>-1,38; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 140,33</t>
+          <t>-100,0; 195,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-60,26; 103,65</t>
+          <t>-62,07; 108,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,51</t>
+          <t>-0,76; 4,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,72</t>
+          <t>-3,59; 1,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,63</t>
+          <t>-0,19; 4,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,87</t>
+          <t>-1,48; 0,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 185,56</t>
+          <t>-20,31; 173,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,27; 55,06</t>
+          <t>-55,43; 53,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 274,95</t>
+          <t>-14,02; 302,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,16; —</t>
+          <t>-86,47; 468,06</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 6,27</t>
+          <t>-0,58; 6,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,23</t>
+          <t>-1,53; 1,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,79</t>
+          <t>-3,94; 1,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 280,67</t>
+          <t>-12,97; 285,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-69,93; 85,55</t>
+          <t>-66,63; 93,51</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,42</t>
+          <t>-2,3; 2,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,58</t>
+          <t>-0,94; 2,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,86</t>
+          <t>-0,04; 4,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 1,31</t>
+          <t>-3,24; 1,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,71; 157,52</t>
+          <t>-56,49; 157,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 276,49</t>
+          <t>-38,89; 199,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 871,06</t>
+          <t>-21,35; 913,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,22; 82,33</t>
+          <t>-68,67; 99,73</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 7,49</t>
+          <t>-2,93; 7,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,74</t>
+          <t>-2,35; 3,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,85</t>
+          <t>0,4; 3,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,26</t>
+          <t>-1,79; 0,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 148,28</t>
+          <t>-33,82; 145,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-74,57; 422,82</t>
+          <t>-74,93; 428,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,27 +1168,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,99</t>
+          <t>-1,06; 3,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,82</t>
+          <t>-1,78; 0,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,14</t>
+          <t>-0,63; 1,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,36</t>
+          <t>-1,87; 1,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,06; —</t>
+          <t>-72,69; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,76</t>
+          <t>2,19; 6,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,23</t>
+          <t>-0,84; 1,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,84</t>
+          <t>-0,93; 1,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,37</t>
+          <t>0,02; 2,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>63,09; 451,47</t>
+          <t>70,65; 503,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-88,63; 415,98</t>
+          <t>-79,39; 527,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-51,34; 280,14</t>
+          <t>-55,37; 295,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 811,08</t>
+          <t>-10,99; 978,91</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,88</t>
+          <t>-0,75; 2,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,54</t>
+          <t>-1,51; 0,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,53</t>
+          <t>-0,09; 1,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,86</t>
+          <t>-0,56; 0,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 151,25</t>
+          <t>-24,63; 151,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-88,38; 130,94</t>
+          <t>-87,12; 165,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-72,07; —</t>
+          <t>-83,32; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-70,36; 528,93</t>
+          <t>-73,4; 463,66</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,65</t>
+          <t>0,81; 2,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,63</t>
+          <t>-0,66; 0,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,47</t>
+          <t>0,13; 1,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,71</t>
+          <t>-0,44; 0,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,81; 103,04</t>
+          <t>23,25; 101,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 47,48</t>
+          <t>-33,18; 47,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,94; 137,01</t>
+          <t>6,54; 127,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 83,04</t>
+          <t>-29,79; 68,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 3,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,0</t>
+          <t>-1,18; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,67; 334,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,82%</t>
+          <t>-6,62%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,8</t>
+          <t>-1,42; 0,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,47; 468,06</t>
+          <t>-86,39; 486,27</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-19,35%</t>
+          <t>-20,74%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,98</t>
+          <t>-4,14; 1,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-66,63; 93,51</t>
+          <t>-67,77; 86,48</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,82%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,86%</t>
+          <t>-30,41%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,26</t>
+          <t>-1,32; 2,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,53</t>
+          <t>-3,83; 1,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 199,39</t>
+          <t>-62,16; 400,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,67; 99,73</t>
+          <t>-75,8; 63,08</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-62,21%</t>
+          <t>-66,33%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,24</t>
+          <t>-2,03; 0,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>16,95%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,31</t>
+          <t>-1,9; 1,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>164,08%</t>
+          <t>135,51%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,3</t>
+          <t>-0,26; 2,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 978,91</t>
+          <t>-28,76; 830,85</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>72,51%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 0,82</t>
+          <t>-0,34; 0,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-73,4; 463,66</t>
+          <t>-63,85; 711,14</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,96%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,6</t>
+          <t>-0,45; 0,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 68,6</t>
+          <t>-32,23; 73,7</t>
         </is>
       </c>
     </row>
